--- a/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-plandefinition-chemotherapyregimen-timingdaysofcycle.xlsx
+++ b/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-plandefinition-chemotherapyregimen-timingdaysofcycle.xlsx
@@ -259,7 +259,7 @@
 </t>
   </si>
   <si>
-    <t>【仮】周期の日数に関する情報</t>
+    <t>周期の日数</t>
   </si>
   <si>
     <t>周期の日数に関する情報を表現する拡張</t>

--- a/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-plandefinition-chemotherapyregimen-timingdaysofcycle.xlsx
+++ b/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/StructureDefinition-jp-plandefinition-chemotherapyregimen-timingdaysofcycle.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>周期の日数に関する情報を格納するためのExtension。</t>
+    <t>周期の日数に関する情報を格納するためのExtension</t>
   </si>
   <si>
     <t>Purpose</t>
